--- a/sw/doc/Pin Mapping and Calibration.xlsx
+++ b/sw/doc/Pin Mapping and Calibration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="95">
   <si>
     <t>BANK</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>PH_COMP</t>
+  </si>
+  <si>
+    <t>PH_MEASURE</t>
+  </si>
+  <si>
+    <t>PH_SUPLEMENT</t>
+  </si>
+  <si>
+    <t>PH_OFFSET</t>
+  </si>
+  <si>
+    <t>invertido?</t>
   </si>
 </sst>
 </file>
@@ -739,18 +751,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,13 +787,19 @@
         <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -802,18 +822,26 @@
         <v>1</v>
       </c>
       <c r="H2" s="16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I2" s="16">
-        <f>H2/360*255</f>
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
-        <f>CONCATENATE(C2,",",CHAR(9),I2,",",CHAR(9)," //x",F2," y",G2)</f>
-        <v>27,	0,	 //x1 y1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f>360-H2</f>
+        <v>210</v>
+      </c>
+      <c r="J2" s="16">
+        <f>I2-MIN(I$2:I$65)</f>
+        <v>35</v>
+      </c>
+      <c r="K2" s="16">
+        <f>ROUND(J2/360*255,0)</f>
+        <v>25</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE(C2,",",CHAR(9),K2,",",CHAR(9)," //x",F2," y",G2)</f>
+        <v>27,	25,	 //x1 y1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -836,18 +864,26 @@
         <v>2</v>
       </c>
       <c r="H3" s="16">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" ref="I3:I65" si="0">H3/360*255</f>
-        <v>0</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J65" si="1">CONCATENATE(C3,",",CHAR(9),I3,",",CHAR(9)," //x",F3," y",G3)</f>
-        <v>25,	0,	 //x1 y2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I3:I65" si="0">360-H3</f>
+        <v>198</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:J65" si="1">I3-MIN(I$2:I$65)</f>
+        <v>23</v>
+      </c>
+      <c r="K3" s="16">
+        <f t="shared" ref="K3:K65" si="2">ROUND(J3/360*255,0)</f>
+        <v>16</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L65" si="3">CONCATENATE(C3,",",CHAR(9),K3,",",CHAR(9)," //x",F3," y",G3)</f>
+        <v>25,	16,	 //x1 y2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -870,18 +906,26 @@
         <v>3</v>
       </c>
       <c r="H4" s="16">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>21,	0,	 //x1 y3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K4" s="16">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="3"/>
+        <v>21,	33,	 //x1 y3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -904,18 +948,26 @@
         <v>4</v>
       </c>
       <c r="H5" s="16">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>19,	0,	 //x1 y4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K5" s="16">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v>19,	45,	 //x1 y4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -938,18 +990,26 @@
         <v>5</v>
       </c>
       <c r="H6" s="16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,	0,	 //x1 y5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="3"/>
+        <v>17,	25,	 //x1 y5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -972,18 +1032,26 @@
         <v>6</v>
       </c>
       <c r="H7" s="16">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>14,	0,	 //x1 y6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>14,	45,	 //x1 y6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1006,18 +1074,26 @@
         <v>7</v>
       </c>
       <c r="H8" s="16">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>15,	0,	 //x1 y7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K8" s="16">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>15,	53,	 //x1 y7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1040,18 +1116,26 @@
         <v>8</v>
       </c>
       <c r="H9" s="16">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>8,	0,	 //x1 y8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K9" s="16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v>8,	28,	 //x1 y8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1074,18 +1158,26 @@
         <v>1</v>
       </c>
       <c r="H10" s="16">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>29,	0,	 //x2 y1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v>29,	33,	 //x2 y1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1108,18 +1200,32 @@
         <v>2</v>
       </c>
       <c r="H11" s="16">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>23,	0,	 //x2 y2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v>23,	98,	 //x2 y2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1142,18 +1248,26 @@
         <v>3</v>
       </c>
       <c r="H12" s="16">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v>20,	0,	 //x2 y3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="K12" s="16">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v>20,	43,	 //x2 y3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1176,18 +1290,26 @@
         <v>4</v>
       </c>
       <c r="H13" s="16">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>18,	0,	 //x2 y4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v>18,	57,	 //x2 y4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1210,18 +1332,26 @@
         <v>5</v>
       </c>
       <c r="H14" s="16">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="1"/>
-        <v>16,	0,	 //x2 y5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="3"/>
+        <v>16,	28,	 //x2 y5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -1244,18 +1374,26 @@
         <v>6</v>
       </c>
       <c r="H15" s="16">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>7,	0,	 //x2 y6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="3"/>
+        <v>7,	62,	 //x2 y6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
@@ -1278,18 +1416,26 @@
         <v>7</v>
       </c>
       <c r="H16" s="16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>6,	0,	 //x2 y7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K16" s="16">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v>6,	25,	 //x2 y7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
@@ -1312,18 +1458,26 @@
         <v>8</v>
       </c>
       <c r="H17" s="16">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="1"/>
-        <v>9,	0,	 //x2 y8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v>9,	33,	 //x2 y8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1346,18 +1500,26 @@
         <v>1</v>
       </c>
       <c r="H18" s="16">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="1"/>
-        <v>31,	0,	 //x3 y1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v>31,	53,	 //x3 y1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
@@ -1380,18 +1542,26 @@
         <v>2</v>
       </c>
       <c r="H19" s="16">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="1"/>
-        <v>37,	0,	 //x3 y2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="K19" s="16">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v>37,	66,	 //x3 y2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1414,18 +1584,26 @@
         <v>3</v>
       </c>
       <c r="H20" s="16">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="1"/>
-        <v>26,	0,	 //x3 y3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v>26,	62,	 //x3 y3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1448,18 +1626,26 @@
         <v>4</v>
       </c>
       <c r="H21" s="16">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>28,	0,	 //x3 y4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K21" s="16">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>28,	45,	 //x3 y4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1482,18 +1668,26 @@
         <v>5</v>
       </c>
       <c r="H22" s="16">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="1"/>
-        <v>30,	0,	 //x3 y5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v>30,	66,	 //x3 y5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -1516,18 +1710,26 @@
         <v>6</v>
       </c>
       <c r="H23" s="16">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v>32,	0,	 //x3 y6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="K23" s="16">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v>32,	74,	 //x3 y6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -1550,18 +1752,26 @@
         <v>7</v>
       </c>
       <c r="H24" s="16">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="1"/>
-        <v>13,	0,	 //x3 y7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="3"/>
+        <v>13,	53,	 //x3 y7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -1584,18 +1794,26 @@
         <v>8</v>
       </c>
       <c r="H25" s="16">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="1"/>
-        <v>12,	0,	 //x3 y8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K25" s="16">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="3"/>
+        <v>12,	33,	 //x3 y8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1618,18 +1836,26 @@
         <v>1</v>
       </c>
       <c r="H26" s="16">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="1"/>
-        <v>33,	0,	 //x4 y1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="3"/>
+        <v>33,	62,	 //x4 y1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
@@ -1652,18 +1878,26 @@
         <v>2</v>
       </c>
       <c r="H27" s="16">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="1"/>
-        <v>35,	0,	 //x4 y2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="3"/>
+        <v>35,	45,	 //x4 y2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>54</v>
       </c>
@@ -1686,18 +1920,26 @@
         <v>3</v>
       </c>
       <c r="H28" s="16">
+        <v>185</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="16">
-        <f t="shared" si="0"/>
+      <c r="K28" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" t="str">
-        <f t="shared" si="1"/>
+      <c r="L28" t="str">
+        <f t="shared" si="3"/>
         <v>42,	0,	 //x4 y3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>54</v>
       </c>
@@ -1720,18 +1962,26 @@
         <v>4</v>
       </c>
       <c r="H29" s="16">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="1"/>
-        <v>44,	0,	 //x4 y4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="3"/>
+        <v>44,	18,	 //x4 y4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1754,18 +2004,26 @@
         <v>5</v>
       </c>
       <c r="H30" s="16">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="1"/>
-        <v>38,	0,	 //x4 y5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="3"/>
+        <v>38,	45,	 //x4 y5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>9</v>
       </c>
@@ -1788,18 +2046,26 @@
         <v>6</v>
       </c>
       <c r="H31" s="16">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="1"/>
-        <v>40,	0,	 //x4 y6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="K31" s="16">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="3"/>
+        <v>40,	21,	 //x4 y6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -1822,18 +2088,26 @@
         <v>7</v>
       </c>
       <c r="H32" s="16">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="1"/>
-        <v>11,	0,	 //x4 y7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="K32" s="16">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="3"/>
+        <v>11,	49,	 //x4 y7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -1856,18 +2130,26 @@
         <v>8</v>
       </c>
       <c r="H33" s="16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="1"/>
-        <v>10,	0,	 //x4 y8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K33" s="16">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="3"/>
+        <v>10,	25,	 //x4 y8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>9</v>
       </c>
@@ -1890,18 +2172,26 @@
         <v>1</v>
       </c>
       <c r="H34" s="16">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="1"/>
-        <v>39,	0,	 //x5 y1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="K34" s="16">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="3"/>
+        <v>39,	21,	 //x5 y1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>54</v>
       </c>
@@ -1924,18 +2214,26 @@
         <v>2</v>
       </c>
       <c r="H35" s="16">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="1"/>
-        <v>49,	0,	 //x5 y2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="K35" s="16">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="3"/>
+        <v>49,	21,	 //x5 y2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>54</v>
       </c>
@@ -1958,18 +2256,26 @@
         <v>3</v>
       </c>
       <c r="H36" s="16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="1"/>
-        <v>48,	0,	 //x5 y3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K36" s="16">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="3"/>
+        <v>48,	25,	 //x5 y3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>54</v>
       </c>
@@ -1992,18 +2298,26 @@
         <v>4</v>
       </c>
       <c r="H37" s="16">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I37" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="1"/>
-        <v>46,	0,	 //x5 y4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K37" s="16">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="3"/>
+        <v>46,	33,	 //x5 y4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -2026,18 +2340,26 @@
         <v>5</v>
       </c>
       <c r="H38" s="16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="1"/>
-        <v>52,	0,	 //x5 y5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K38" s="16">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="3"/>
+        <v>52,	25,	 //x5 y5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -2060,18 +2382,26 @@
         <v>6</v>
       </c>
       <c r="H39" s="16">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="1"/>
-        <v>50,	0,	 //x5 y6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="3"/>
+        <v>50,	66,	 //x5 y6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
@@ -2094,18 +2424,26 @@
         <v>7</v>
       </c>
       <c r="H40" s="16">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="1"/>
-        <v>22,	0,	 //x5 y7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="3"/>
+        <v>22,	41,	 //x5 y7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
@@ -2128,18 +2466,26 @@
         <v>8</v>
       </c>
       <c r="H41" s="16">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="1"/>
-        <v>24,	0,	 //x5 y8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="K41" s="16">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="3"/>
+        <v>24,	62,	 //x5 y8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
@@ -2162,18 +2508,26 @@
         <v>1</v>
       </c>
       <c r="H42" s="16">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="1"/>
-        <v>41,	0,	 //x6 y1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K42" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="3"/>
+        <v>41,	4,	 //x6 y1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>54</v>
       </c>
@@ -2196,18 +2550,26 @@
         <v>2</v>
       </c>
       <c r="H43" s="16">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="1"/>
-        <v>47,	0,	 //x6 y2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K43" s="16">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="3"/>
+        <v>47,	16,	 //x6 y2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>76</v>
       </c>
@@ -2230,18 +2592,26 @@
         <v>3</v>
       </c>
       <c r="H44" s="16">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="1"/>
-        <v>64,	0,	 //x6 y3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="3"/>
+        <v>64,	21,	 //x6 y3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>76</v>
       </c>
@@ -2264,18 +2634,26 @@
         <v>4</v>
       </c>
       <c r="H45" s="16">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="1"/>
-        <v>65,	0,	 //x6 y4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K45" s="16">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="3"/>
+        <v>65,	33,	 //x6 y4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>67</v>
       </c>
@@ -2298,18 +2676,26 @@
         <v>5</v>
       </c>
       <c r="H46" s="16">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="1"/>
-        <v>55,	0,	 //x6 y5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="K46" s="16">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="3"/>
+        <v>55,	47,	 //x6 y5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>67</v>
       </c>
@@ -2332,18 +2718,26 @@
         <v>6</v>
       </c>
       <c r="H47" s="16">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="1"/>
-        <v>54,	0,	 //x6 y6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="J47" s="16">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K47" s="16">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="3"/>
+        <v>54,	33,	 //x6 y6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>41</v>
       </c>
@@ -2366,18 +2760,26 @@
         <v>7</v>
       </c>
       <c r="H48" s="16">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="1"/>
-        <v>34,	0,	 //x6 y7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="J48" s="16">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K48" s="16">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="3"/>
+        <v>34,	53,	 //x6 y7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -2400,18 +2802,26 @@
         <v>8</v>
       </c>
       <c r="H49" s="16">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="1"/>
-        <v>36,	0,	 //x6 y8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="J49" s="16">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="K49" s="16">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="3"/>
+        <v>36,	41,	 //x6 y8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>54</v>
       </c>
@@ -2434,18 +2844,26 @@
         <v>1</v>
       </c>
       <c r="H50" s="16">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="1"/>
-        <v>43,	0,	 //x7 y1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="J50" s="16">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="K50" s="16">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="3"/>
+        <v>43,	47,	 //x7 y1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -2468,18 +2886,26 @@
         <v>2</v>
       </c>
       <c r="H51" s="16">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="1"/>
-        <v>53,	0,	 //x7 y2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="J51" s="16">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="K51" s="16">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="3"/>
+        <v>53,	78,	 //x7 y2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>76</v>
       </c>
@@ -2502,18 +2928,26 @@
         <v>3</v>
       </c>
       <c r="H52" s="16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="1"/>
-        <v>66,	0,	 //x7 y3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="J52" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K52" s="16">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="3"/>
+        <v>66,	25,	 //x7 y3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>76</v>
       </c>
@@ -2536,18 +2970,26 @@
         <v>4</v>
       </c>
       <c r="H53" s="16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="1"/>
-        <v>67,	0,	 //x7 y4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="J53" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K53" s="16">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="3"/>
+        <v>67,	25,	 //x7 y4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>67</v>
       </c>
@@ -2570,18 +3012,26 @@
         <v>5</v>
       </c>
       <c r="H54" s="16">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="1"/>
-        <v>57,	0,	 //x7 y5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="J54" s="16">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="K54" s="16">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="3"/>
+        <v>57,	57,	 //x7 y5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>67</v>
       </c>
@@ -2604,18 +3054,26 @@
         <v>6</v>
       </c>
       <c r="H55" s="16">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="1"/>
-        <v>56,	0,	 //x7 y6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="J55" s="16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K55" s="16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="3"/>
+        <v>56,	28,	 //x7 y6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>9</v>
       </c>
@@ -2638,18 +3096,26 @@
         <v>7</v>
       </c>
       <c r="H56" s="16">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="1"/>
-        <v>4,	0,	 //x7 y7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="J56" s="16">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="K56" s="16">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="3"/>
+        <v>4,	78,	 //x7 y7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>67</v>
       </c>
@@ -2672,18 +3138,26 @@
         <v>8</v>
       </c>
       <c r="H57" s="16">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="I57" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="1"/>
-        <v>61,	0,	 //x7 y8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="J57" s="16">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="K57" s="16">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="3"/>
+        <v>61,	30,	 //x7 y8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>54</v>
       </c>
@@ -2706,18 +3180,26 @@
         <v>1</v>
       </c>
       <c r="H58" s="16">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="I58" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="1"/>
-        <v>45,	0,	 //x8 y1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="J58" s="16">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="K58" s="16">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="3"/>
+        <v>45,	39,	 //x8 y1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -2740,18 +3222,26 @@
         <v>2</v>
       </c>
       <c r="H59" s="16">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="1"/>
-        <v>51,	0,	 //x8 y2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="J59" s="16">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="K59" s="16">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="3"/>
+        <v>51,	37,	 //x8 y2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>76</v>
       </c>
@@ -2774,18 +3264,26 @@
         <v>3</v>
       </c>
       <c r="H60" s="16">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="1"/>
-        <v>68,	0,	 //x8 y3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="J60" s="16">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="K60" s="16">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="3"/>
+        <v>68,	21,	 //x8 y3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>76</v>
       </c>
@@ -2808,18 +3306,26 @@
         <v>4</v>
       </c>
       <c r="H61" s="16">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="1"/>
-        <v>69,	0,	 //x8 y4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="J61" s="16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K61" s="16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="3"/>
+        <v>69,	28,	 //x8 y4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>67</v>
       </c>
@@ -2842,18 +3348,26 @@
         <v>5</v>
       </c>
       <c r="H62" s="16">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="1"/>
-        <v>59,	0,	 //x8 y5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="J62" s="16">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="K62" s="16">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="3"/>
+        <v>59,	57,	 //x8 y5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>67</v>
       </c>
@@ -2876,18 +3390,26 @@
         <v>6</v>
       </c>
       <c r="H63" s="16">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="1"/>
-        <v>58,	0,	 //x8 y6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="J63" s="16">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="K63" s="16">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="3"/>
+        <v>58,	47,	 //x8 y6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>76</v>
       </c>
@@ -2910,18 +3432,26 @@
         <v>7</v>
       </c>
       <c r="H64" s="16">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="1"/>
-        <v>62,	0,	 //x8 y7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="J64" s="16">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="K64" s="16">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="3"/>
+        <v>62,	66,	 //x8 y7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>76</v>
       </c>
@@ -2944,18 +3474,26 @@
         <v>8</v>
       </c>
       <c r="H65" s="16">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="1"/>
-        <v>63,	0,	 //x8 y8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="J65" s="16">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="K65" s="16">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="3"/>
+        <v>63,	57,	 //x8 y8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>4</v>
       </c>
@@ -2974,7 +3512,7 @@
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +3531,7 @@
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>4</v>
       </c>
@@ -3012,7 +3550,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>4</v>
       </c>
@@ -3031,7 +3569,7 @@
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>4</v>
       </c>
@@ -3050,7 +3588,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>67</v>
       </c>
